--- a/Assets/Resources/DialoguesCSV.xlsx
+++ b/Assets/Resources/DialoguesCSV.xlsx
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:J338"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
